--- a/osce-server/src/main/resources/static/biz/download/item/itemTemplate.xlsx
+++ b/osce-server/src/main/resources/static/biz/download/item/itemTemplate.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangtongbin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangtongbin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEF58D-E448-AE4C-93CC-E451FF826AC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4DDE9-EE38-754E-BC2B-E15420A98650}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$T$6</definedName>
+  </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>题目解析</t>
     <rPh sb="0" eb="1">
@@ -229,26 +232,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">难度 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>nan'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>默认分值</t>
     </r>
     <r>
@@ -290,16 +273,6 @@
     <t>简单</t>
   </si>
   <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +378,15 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>难</t>
+  </si>
+  <si>
+    <t>较易</t>
+  </si>
+  <si>
+    <t>易</t>
   </si>
 </sst>
 </file>
@@ -619,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,6 +639,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,7 +926,7 @@
   <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="BD52" sqref="BD52"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="23" customHeight="1"/>
@@ -979,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>4</v>
@@ -1065,53 +1050,53 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="23" customHeight="1">
@@ -1125,53 +1110,53 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="23" customHeight="1">
@@ -1185,53 +1170,53 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="6">
         <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="23" customHeight="1">
@@ -1245,53 +1230,53 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <v>5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="23" customHeight="1">
@@ -3826,11 +3811,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3838,18 +3818,23 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"简单,普通,困难,极难"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 Q1:Q1048576 N1:N1048576 K1:K1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"A1,A2,B1"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{A62836B0-414C-854F-9819-280DEFAC8BA0}">
+      <formula1>"易,较易,中,难,较难"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
